--- a/data/trans_orig/IP05A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP05A05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{535B667C-C033-46A4-B99E-0FBC5554415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC9CBB7A-B6B3-4CC8-8C76-C44180645E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E58A1327-E7AA-42AA-8B73-28C2849C504A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{085080FC-B951-4077-BFA5-A7739E50E7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="439">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -107,955 +107,937 @@
     <t>29,57%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>42,0%</t>
   </si>
   <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
   </si>
   <si>
     <t>41,31%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2015 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,84%)</t>
@@ -1064,310 +1046,316 @@
     <t>72,98%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>71,88%</t>
   </si>
   <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>72,47%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>81,55%</t>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>78,27%</t>
   </si>
   <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98315342-282A-4074-B765-415C46836828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9F294F-C34D-433A-9DCE-02CA6EDD145C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2534,7 +2522,7 @@
         <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -2543,13 +2531,13 @@
         <v>92262</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,7 +2921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A674FA37-8E65-446B-90DB-B99FA7433CD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CC5BE4-B8A4-49DC-BCC2-DB6C1C9A7680}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3291,7 +3279,7 @@
         <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3294,13 @@
         <v>41714</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H9" s="7">
         <v>63</v>
@@ -3321,13 +3309,13 @@
         <v>45020</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M9" s="7">
         <v>121</v>
@@ -3515,10 +3503,10 @@
         <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -3527,13 +3515,13 @@
         <v>182902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>587</v>
@@ -3542,10 +3530,10 @@
         <v>410658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>173</v>
@@ -3802,10 +3790,10 @@
         <v>207</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3861,13 @@
         <v>228972</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>349</v>
@@ -3888,13 +3876,13 @@
         <v>236479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>680</v>
@@ -3903,13 +3891,13 @@
         <v>465452</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3912,13 @@
         <v>349068</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H21" s="7">
         <v>429</v>
@@ -3939,13 +3927,13 @@
         <v>300414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" s="7">
         <v>924</v>
@@ -3954,13 +3942,13 @@
         <v>649482</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3963,13 @@
         <v>175467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>245</v>
@@ -4087,7 +4075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8AC92B-84E7-4C77-95D2-E01E76E50D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3926763-48E8-4FC7-8794-8F766119E3FF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,13 +4381,13 @@
         <v>32015</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -4408,13 +4396,13 @@
         <v>24907</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>83</v>
@@ -4423,13 +4411,13 @@
         <v>56922</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4432,13 @@
         <v>20035</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -4459,13 +4447,13 @@
         <v>23277</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -4474,13 +4462,13 @@
         <v>43312</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4483,13 @@
         <v>16565</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4510,13 +4498,13 @@
         <v>11194</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4525,13 +4513,13 @@
         <v>27759</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4587,13 @@
         <v>187286</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>288</v>
@@ -4614,13 +4602,13 @@
         <v>186338</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M12" s="7">
         <v>553</v>
@@ -4629,13 +4617,13 @@
         <v>373624</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4638,13 @@
         <v>194143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>276</v>
@@ -4665,13 +4653,13 @@
         <v>187236</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>551</v>
@@ -4680,13 +4668,13 @@
         <v>381379</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4689,13 @@
         <v>106628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>147</v>
@@ -4716,13 +4704,13 @@
         <v>96281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
@@ -4731,13 +4719,13 @@
         <v>202909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,10 +4796,10 @@
         <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -4820,13 +4808,13 @@
         <v>59005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>167</v>
@@ -4835,13 +4823,13 @@
         <v>114932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4844,13 @@
         <v>77812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -4871,13 +4859,13 @@
         <v>71481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -4886,13 +4874,13 @@
         <v>149293</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4895,13 @@
         <v>53755</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -4922,13 +4910,13 @@
         <v>42217</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
@@ -4937,13 +4925,13 @@
         <v>95972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +4999,13 @@
         <v>275228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>414</v>
@@ -5026,13 +5014,13 @@
         <v>270250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>803</v>
@@ -5041,13 +5029,13 @@
         <v>545478</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5050,13 @@
         <v>291990</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="H21" s="7">
         <v>416</v>
@@ -5077,13 +5065,13 @@
         <v>281994</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>835</v>
@@ -5092,13 +5080,13 @@
         <v>573984</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>330</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5101,13 @@
         <v>176948</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
         <v>228</v>
@@ -5128,13 +5116,13 @@
         <v>149692</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>484</v>
@@ -5143,13 +5131,13 @@
         <v>326640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,7 +5213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032007F0-7F67-446E-8220-EA39A220D4C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99201F84-BBD2-40BE-BB6A-0126BE2BE1EE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5242,7 +5230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5531,13 +5519,13 @@
         <v>42495</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -5546,13 +5534,13 @@
         <v>36806</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -5561,13 +5549,13 @@
         <v>79302</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5570,13 @@
         <v>6411</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -5597,13 +5585,13 @@
         <v>10331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -5612,13 +5600,13 @@
         <v>16742</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5621,13 @@
         <v>9324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5648,13 +5636,13 @@
         <v>4065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -5663,13 +5651,13 @@
         <v>13389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5725,13 @@
         <v>401501</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>519</v>
@@ -5752,13 +5740,13 @@
         <v>352382</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>1049</v>
@@ -5767,13 +5755,13 @@
         <v>753885</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5776,13 @@
         <v>63643</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5803,13 +5791,13 @@
         <v>64319</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
@@ -5818,13 +5806,13 @@
         <v>127963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5827,13 @@
         <v>27219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -5854,13 +5842,13 @@
         <v>33266</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -5869,13 +5857,13 @@
         <v>60486</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5931,13 @@
         <v>127523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>182</v>
@@ -5958,13 +5946,13 @@
         <v>116921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>357</v>
@@ -5973,13 +5961,13 @@
         <v>244444</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +5982,13 @@
         <v>25744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -6009,13 +5997,13 @@
         <v>20587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -6024,13 +6012,13 @@
         <v>46331</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6033,13 @@
         <v>20414</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -6060,13 +6048,13 @@
         <v>13862</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -6075,13 +6063,13 @@
         <v>34275</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6137,13 @@
         <v>571520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>753</v>
@@ -6164,13 +6152,13 @@
         <v>506110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>1518</v>
@@ -6179,13 +6167,13 @@
         <v>1077630</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6188,13 @@
         <v>95799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H21" s="7">
         <v>116</v>
@@ -6215,13 +6203,13 @@
         <v>95237</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M21" s="7">
         <v>247</v>
@@ -6230,13 +6218,13 @@
         <v>191036</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6239,13 @@
         <v>56957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>73</v>
@@ -6266,13 +6254,13 @@
         <v>51193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -6281,13 +6269,13 @@
         <v>108150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
